--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3813802.816432796</v>
+        <v>3811550.736721589</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,22 +710,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9601371840612</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>113.6883373826034</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +786,7 @@
         <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.91073356940661</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>70.99506002739663</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>309.7699873230225</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>94.57983363107971</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>117.7126336312588</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>142.3478174606653</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>20.29515656310261</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>146.2529838800234</v>
+        <v>83.32727861849563</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,10 +1582,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>106.997776813539</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>64.91921363453612</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1847,10 +1847,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569552</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>53.11937003877963</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>55.52079624060465</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.13627195705896</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>66.2562870115476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576175</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>36.43062059490504</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>94.64226186542935</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>126.632153562788</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>10.63412424768257</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3670,7 +3670,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>275.6685478670739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>156.3923706291105</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4144,16 +4144,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,13 +4186,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792694</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,52 +4462,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>772.5608581015648</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="C4" t="n">
-        <v>772.5608581015648</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>138.2242982780386</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
         <v>831.0565485757129</v>
@@ -4516,22 +4516,22 @@
         <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X4" t="n">
-        <v>831.0565485757129</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y4" t="n">
-        <v>831.0565485757129</v>
+        <v>319.8727631082783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.200456328343</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1053.237939387932</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>694.9722407811812</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E5" t="n">
-        <v>382.0732636872191</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>375.1277629380156</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653545</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392465</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1808.800296392465</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4656,40 +4656,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4750,25 +4750,25 @@
         <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>825.3518203322459</v>
+        <v>729.2011216450114</v>
       </c>
       <c r="T7" t="n">
-        <v>825.3518203322459</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U7" t="n">
-        <v>825.3518203322459</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="W7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="X7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y7" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2735.306770649777</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2735.306770649777</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4857,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4969,43 +4969,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>773.1567190706866</v>
+        <v>645.0321533435005</v>
       </c>
       <c r="U10" t="n">
-        <v>773.1567190706866</v>
+        <v>355.929286469144</v>
       </c>
       <c r="V10" t="n">
-        <v>773.1567190706866</v>
+        <v>355.929286469144</v>
       </c>
       <c r="W10" t="n">
-        <v>773.1567190706866</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X10" t="n">
-        <v>545.1671681726692</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y10" t="n">
-        <v>545.1671681726692</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168621</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
         <v>549.6145409888042</v>
@@ -5191,58 +5191,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,25 +5501,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5531,7 +5531,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2367.795837888943</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>695.5020655703119</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>526.565882642405</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>376.4492432300692</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,13 +5826,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5841,13 +5841,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.562808876161</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2312.991837396757</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1251.82540160009</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327652</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048583</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925226</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704552</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806535</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630049</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,61 +6686,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>913.2907898186995</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898186995</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373306</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,16 +6947,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>842.6091804069456</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1470.207143961552</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2022.116874200839</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2445.740023695907</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>696.7084350851671</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>696.7084350851671</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>546.5917956728314</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>398.6787020904383</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>251.7887545925279</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>564.5188827892232</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>414.4022433768874</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>266.4891497944943</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>119.599202296584</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7834,22 +7834,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>221.265260754708</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.31459260778954</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.23897475306271</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>114.769998990097</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>125.50548976104</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>206.7713260796057</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>10.85445046951713</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.131767663158371</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>114.7699989900979</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,13 +26074,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640787.2138850626</v>
+        <v>640787.2138850625</v>
       </c>
     </row>
     <row r="9">
@@ -26314,28 +26314,28 @@
         <v>800515.725617676</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="F2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="G2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>786967.9346977555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977561</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977558</v>
@@ -26344,16 +26344,16 @@
         <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="N2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.014195044670487e-10</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189201</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189202</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.583971892</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-729759.7047753624</v>
       </c>
       <c r="C6" t="n">
-        <v>598985.0409522296</v>
+        <v>598985.0409522301</v>
       </c>
       <c r="D6" t="n">
-        <v>598985.0409522302</v>
+        <v>598985.0409522298</v>
       </c>
       <c r="E6" t="n">
-        <v>344386.3590946021</v>
+        <v>344351.6211691651</v>
       </c>
       <c r="F6" t="n">
-        <v>669798.8209019564</v>
+        <v>669764.082976521</v>
       </c>
       <c r="G6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765206</v>
       </c>
       <c r="H6" t="n">
-        <v>669798.8209019568</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="I6" t="n">
-        <v>669798.8209019568</v>
+        <v>669764.0829765209</v>
       </c>
       <c r="J6" t="n">
-        <v>452267.6185046792</v>
+        <v>452232.8805792436</v>
       </c>
       <c r="K6" t="n">
-        <v>669798.8209019569</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="L6" t="n">
-        <v>669798.8209019569</v>
+        <v>669764.0829765211</v>
       </c>
       <c r="M6" t="n">
-        <v>584743.7929664452</v>
+        <v>584709.0550410092</v>
       </c>
       <c r="N6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765209</v>
       </c>
       <c r="O6" t="n">
-        <v>669798.820901957</v>
+        <v>669764.0829765206</v>
       </c>
       <c r="P6" t="n">
-        <v>669798.8209019566</v>
+        <v>669764.0829765209</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26811,13 +26811,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>218.7709634944079</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>272.5496012734502</v>
       </c>
     </row>
     <row r="3">
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.9212466125307</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>74.42598799553461</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>72.16038274923932</v>
+        <v>259.6421064805524</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,16 +27822,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>95.18919170036219</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>101.8363156449104</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>328.9458121543104</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>73.29596539614576</v>
+        <v>136.2216706576736</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28567,19 +28567,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,10 +28612,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28624,13 +28624,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28810,10 +28810,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.463149601477198e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>361.7519118779092</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,37 +32309,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>416.7024900153323</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>321.1112257697157</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32470,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32944,34 +32944,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>295.974394015948</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>650.2626573149951</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>476.064808938546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>211.3773391483997</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0567753070487</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>219.1556674334648</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>285.360777931999</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016177</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>508.1286233929767</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5104291586719</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.39556506237817</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>469.7150632237154</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
